--- a/TestingFramework/TestData/TC_01_Create_View.xlsx
+++ b/TestingFramework/TestData/TC_01_Create_View.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="765" windowWidth="14805" windowHeight="7350" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="studiologin" sheetId="18" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="dashboard" sheetId="20" r:id="rId4"/>
     <sheet name="ProcessAndPolicies" sheetId="21" r:id="rId5"/>
     <sheet name="bulkpro" sheetId="22" r:id="rId6"/>
+    <sheet name="MasterData" sheetId="23" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="243">
   <si>
     <t>Yes</t>
   </si>
@@ -42,12 +43,6 @@
     <t>DefaultValue</t>
   </si>
   <si>
-    <t>employeeNo</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -129,9 +124,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>Save drivingLicenseDetails</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -183,15 +175,9 @@
     <t>Group1</t>
   </si>
   <si>
-    <t>Child1,Child2</t>
-  </si>
-  <si>
     <t>Save Process101</t>
   </si>
   <si>
-    <t>employeeNo,drivingLicenseNo</t>
-  </si>
-  <si>
     <t>formTemplate</t>
   </si>
   <si>
@@ -222,24 +208,9 @@
     <t>Process102</t>
   </si>
   <si>
-    <t>DrivingLicenseDetails</t>
-  </si>
-  <si>
     <t>any</t>
   </si>
   <si>
-    <t>DrivingLicenseDetails.employeeNo,not equals,KGM100 and
-DrivingLicenseDetails.employeeNo,not equals,KGM120</t>
-  </si>
-  <si>
-    <t>DrivingLicenseDetails.employeeNo,not equals,KGM1111 and
-DrivingLicenseDetails.employeeNo,not equals,KGM1112</t>
-  </si>
-  <si>
-    <t>DrivingLicenseDetails.employeeNo,not equals,KGM155 and
-DrivingLicenseDetails.employeeNo,not equals,KGM129</t>
-  </si>
-  <si>
     <t xml:space="preserve">KagamiProject </t>
   </si>
   <si>
@@ -535,13 +506,259 @@
   </si>
   <si>
     <t>Process151, Process152, Process153</t>
+  </si>
+  <si>
+    <t>EmployeeDetails</t>
+  </si>
+  <si>
+    <t>Panel1,Panel2</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
+    <t>Kolkatta</t>
+  </si>
+  <si>
+    <t>Andra Pradesh</t>
+  </si>
+  <si>
+    <t>Vijayawada</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Itangar</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Dispur</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Raipur</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Panaji</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Gandhinagar</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Shimla</t>
+  </si>
+  <si>
+    <t>Telanagana</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>TamilNadu</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Rajastan</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>OrganizationInfo</t>
+  </si>
+  <si>
+    <t>OrganizationName</t>
+  </si>
+  <si>
+    <t>Kagami</t>
+  </si>
+  <si>
+    <t>OrganizationCode</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>LowerCase, 1, 1000, Alphanumeric</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>pinCode</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>1, 1000</t>
+  </si>
+  <si>
+    <t>Save OrganizationInfo</t>
+  </si>
+  <si>
+    <t>EmployeePersonalDetails</t>
+  </si>
+  <si>
+    <t>permanentAddress</t>
+  </si>
+  <si>
+    <t>temporaryAddress</t>
+  </si>
+  <si>
+    <t>currentCity</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>1, 100</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>bloodGroup</t>
+  </si>
+  <si>
+    <t>contactNumber</t>
+  </si>
+  <si>
+    <t>1, 10000000000</t>
+  </si>
+  <si>
+    <t>Save EmployeePersonalDetails</t>
+  </si>
+  <si>
+    <t>EmployeeDepartment</t>
+  </si>
+  <si>
+    <t>departmentName</t>
+  </si>
+  <si>
+    <t>departmentCode</t>
+  </si>
+  <si>
+    <t>subDepartment</t>
+  </si>
+  <si>
+    <t>reportingManager</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>Save EmployeeDepartment</t>
+  </si>
+  <si>
+    <t>FolderName</t>
+  </si>
+  <si>
+    <t>Folder1</t>
+  </si>
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>employeeId</t>
+  </si>
+  <si>
+    <t>joiningDate</t>
+  </si>
+  <si>
+    <t>Save EmployeeDetails</t>
+  </si>
+  <si>
+    <t>AddressDetails</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Save AddressDetails</t>
+  </si>
+  <si>
+    <t>Folder2</t>
+  </si>
+  <si>
+    <t>1, 1000000</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeName,not equals,KGM100 and
+EmployeeDetails.employeeName,not equals,KGM120</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeName,not equals,KGM111 and
+EmployeeDetails.employeeName,not equals,KGM121</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeName,not equals,KGM211 and
+EmployeeDetails.employeeName,not equals,KGM221</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,8 +801,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +859,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -692,6 +938,22 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,25 +1259,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1290,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,47 +1304,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1093,30 +1355,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1125,10 +1388,11 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1139,106 +1403,680 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5" s="7">
+        <v>899</v>
+      </c>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="I14" s="7">
+        <v>500081</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1251,44 +2089,44 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1300,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,130 +2159,130 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="12" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1466,7 +2304,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1482,323 +2320,495 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="16" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="16" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F16" s="16" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>170</v>
       </c>
+      <c r="B4" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestingFramework/TestData/TC_01_Create_View.xlsx
+++ b/TestingFramework/TestData/TC_01_Create_View.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="945" windowWidth="14805" windowHeight="7170" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="studiologin" sheetId="18" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="ProcessAndPolicies" sheetId="21" r:id="rId5"/>
     <sheet name="bulkpro" sheetId="22" r:id="rId6"/>
     <sheet name="MasterData" sheetId="23" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="255">
   <si>
     <t>Yes</t>
   </si>
@@ -112,9 +114,6 @@
     <t>CO</t>
   </si>
   <si>
-    <t>Admin, Functional</t>
-  </si>
-  <si>
     <t>CFO</t>
   </si>
   <si>
@@ -205,21 +204,12 @@
     <t>Business Validation</t>
   </si>
   <si>
-    <t>Process102</t>
-  </si>
-  <si>
     <t>any</t>
   </si>
   <si>
-    <t xml:space="preserve">KagamiProject </t>
-  </si>
-  <si>
     <t>Finanacial,PM</t>
   </si>
   <si>
-    <t>KagamiProject</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -742,16 +732,64 @@
     <t>1, 1000000</t>
   </si>
   <si>
-    <t>EmployeeDetails.employeeName,not equals,KGM100 and
-EmployeeDetails.employeeName,not equals,KGM120</t>
-  </si>
-  <si>
-    <t>EmployeeDetails.employeeName,not equals,KGM111 and
-EmployeeDetails.employeeName,not equals,KGM121</t>
-  </si>
-  <si>
-    <t>EmployeeDetails.employeeName,not equals,KGM211 and
-EmployeeDetails.employeeName,not equals,KGM221</t>
+    <t>Non Functional, Functional</t>
+  </si>
+  <si>
+    <t>TestAutomationProject</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeId,not equals,KGM100 and
+EmployeeDetails.employeeId,not equals,KGM120</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeId,not equals,KGM111 and
+EmployeeDetails.employeeId,not equals,KGM121</t>
+  </si>
+  <si>
+    <t>EmployeeDetails.employeeId,not equals,KGM211 and
+EmployeeDetails.employeeId,not equals,KGM221</t>
+  </si>
+  <si>
+    <t>LeaveProcess</t>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <t>TestCase id</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutomationTestProjectTest </t>
+  </si>
+  <si>
+    <t>AutomationTestProjectTest</t>
   </si>
 </sst>
 </file>
@@ -1256,28 +1294,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1290,13 +1349,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
@@ -1331,20 +1390,20 @@
         <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1355,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1451,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>254</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1410,25 +1469,25 @@
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>6</v>
@@ -1445,28 +1504,28 @@
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>1</v>
@@ -1483,16 +1542,16 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I5" s="7">
         <v>899</v>
@@ -1508,7 +1567,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>7</v>
@@ -1517,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1525,7 +1584,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1544,22 +1603,22 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1573,16 +1632,16 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1590,7 +1649,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1602,481 +1661,6 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="I14" s="7">
-        <v>500081</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2089,7 +1673,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,33 +1684,33 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2136,155 +1720,179 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="55.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="56" style="2" customWidth="1"/>
-    <col min="11" max="11" width="56" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="55.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56" style="2" customWidth="1"/>
+    <col min="11" max="11" width="38.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="56" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5" s="12"/>
+      <c r="F5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
+      <c r="L5" s="12"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2292,6 +1900,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2320,19 +1930,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>71</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>9</v>
@@ -2340,302 +1950,302 @@
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2660,146 +2270,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2809,6 +2419,991 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="7">
+        <v>899</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="7">
+        <v>500081</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" s="7">
+        <v>899</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
